--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3799,6 +3799,1134 @@
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131106660</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>601244</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6959831</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2025_0516</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131106663</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>601228</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6959812</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2025_0513</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131106648</v>
+      </c>
+      <c r="B34" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>601198</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6959731</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2025_0528</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Brandpåverkad tallstubbe</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Karin Halldin</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131106659</v>
+      </c>
+      <c r="B35" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>601218</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6959810</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2025_0517</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>08:33</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>08:33</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Karin Halldin</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131106661</v>
+      </c>
+      <c r="B36" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>601240</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6959782</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>2025_0515</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131106646</v>
+      </c>
+      <c r="B37" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>601173</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6959739</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>2025_0530</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131106643</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78646</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>601129</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6959679</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>2025_0533</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131106649</v>
+      </c>
+      <c r="B39" t="n">
+        <v>91819</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1205</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Stor aspticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Phellinus populicola</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>601221</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6959782</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2025_0527</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>aspstubbe</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131106645</v>
+      </c>
+      <c r="B40" t="n">
+        <v>98930</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>219790</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>601136</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6959685</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2025_0531</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>09:51</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>09:51</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4428,45 +4428,54 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106646</v>
+        <v>131106649</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601173</v>
+        <v>601221</v>
       </c>
       <c r="R37" t="n">
-        <v>6959739</v>
+        <v>6959782</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4503,7 +4512,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4513,12 +4522,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4674,54 +4683,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106649</v>
+        <v>131106646</v>
       </c>
       <c r="B39" t="n">
-        <v>91819</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601221</v>
+        <v>601173</v>
       </c>
       <c r="R39" t="n">
-        <v>6959782</v>
+        <v>6959739</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>aspstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B34" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R34" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79862</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R35" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4558,10 +4558,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106643</v>
+        <v>131106646</v>
       </c>
       <c r="B38" t="n">
-        <v>78646</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4569,43 +4569,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601129</v>
+        <v>601173</v>
       </c>
       <c r="R38" t="n">
-        <v>6959679</v>
+        <v>6959739</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4632,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4642,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4652,7 +4643,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4672,7 +4668,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4683,10 +4679,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106646</v>
+        <v>131106643</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>78646</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4694,34 +4690,43 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601173</v>
+        <v>601129</v>
       </c>
       <c r="R39" t="n">
-        <v>6959739</v>
+        <v>6959679</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4748,7 +4753,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4758,7 +4763,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4768,12 +4773,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:36</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>tall</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79862</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R34" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B35" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R35" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -3804,7 +3804,7 @@
         <v>131106660</v>
       </c>
       <c r="B32" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>131106663</v>
       </c>
       <c r="B33" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B34" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R34" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R35" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4301,7 +4301,7 @@
         <v>131106661</v>
       </c>
       <c r="B36" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4428,54 +4428,45 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106649</v>
+        <v>131106646</v>
       </c>
       <c r="B37" t="n">
-        <v>91819</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601221</v>
+        <v>601173</v>
       </c>
       <c r="R37" t="n">
-        <v>6959782</v>
+        <v>6959739</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4502,7 +4493,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4512,7 +4503,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4522,12 +4513,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>aspstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4558,10 +4549,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106646</v>
+        <v>131106643</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>78647</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4569,34 +4560,43 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601173</v>
+        <v>601129</v>
       </c>
       <c r="R38" t="n">
-        <v>6959739</v>
+        <v>6959679</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,12 +4643,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:36</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>tall</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4668,7 +4663,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4679,32 +4674,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106643</v>
+        <v>131106649</v>
       </c>
       <c r="B39" t="n">
-        <v>78646</v>
+        <v>91820</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>1205</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4714,7 +4709,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>cm²</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4723,10 +4718,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601129</v>
+        <v>601221</v>
       </c>
       <c r="R39" t="n">
-        <v>6959679</v>
+        <v>6959782</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4753,7 +4748,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4763,7 +4758,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4773,7 +4768,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4807,7 +4807,7 @@
         <v>131106645</v>
       </c>
       <c r="B40" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R34" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B35" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R35" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4428,45 +4428,54 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106646</v>
+        <v>131106649</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>91820</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601173</v>
+        <v>601221</v>
       </c>
       <c r="R37" t="n">
-        <v>6959739</v>
+        <v>6959782</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4503,7 +4512,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4513,12 +4522,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4549,10 +4558,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106643</v>
+        <v>131106646</v>
       </c>
       <c r="B38" t="n">
-        <v>78647</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4560,43 +4569,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601129</v>
+        <v>601173</v>
       </c>
       <c r="R38" t="n">
-        <v>6959679</v>
+        <v>6959739</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,7 +4643,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4663,7 +4668,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4674,32 +4679,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106649</v>
+        <v>131106643</v>
       </c>
       <c r="B39" t="n">
-        <v>91820</v>
+        <v>78647</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1205</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4709,7 +4714,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>cm²</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4718,10 +4723,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601221</v>
+        <v>601129</v>
       </c>
       <c r="R39" t="n">
-        <v>6959782</v>
+        <v>6959679</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4748,7 +4753,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4758,7 +4763,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4768,12 +4773,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:07</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>aspstubbe</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B34" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R34" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R35" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R34" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B35" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R35" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4428,54 +4428,45 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106649</v>
+        <v>131106646</v>
       </c>
       <c r="B37" t="n">
-        <v>91820</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601221</v>
+        <v>601173</v>
       </c>
       <c r="R37" t="n">
-        <v>6959782</v>
+        <v>6959739</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4502,7 +4493,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4512,7 +4503,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4522,12 +4513,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>aspstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4558,10 +4549,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106646</v>
+        <v>131106643</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>78647</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4569,34 +4560,43 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601173</v>
+        <v>601129</v>
       </c>
       <c r="R38" t="n">
-        <v>6959739</v>
+        <v>6959679</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,12 +4643,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:36</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>tall</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4668,7 +4663,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4679,32 +4674,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106643</v>
+        <v>131106649</v>
       </c>
       <c r="B39" t="n">
-        <v>78647</v>
+        <v>91820</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>1205</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4714,7 +4709,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>cm²</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4723,10 +4718,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601129</v>
+        <v>601221</v>
       </c>
       <c r="R39" t="n">
-        <v>6959679</v>
+        <v>6959782</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4753,7 +4748,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4763,7 +4758,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4773,7 +4768,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B34" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R34" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R35" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4428,45 +4428,54 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106646</v>
+        <v>131106649</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>91820</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601173</v>
+        <v>601221</v>
       </c>
       <c r="R37" t="n">
-        <v>6959739</v>
+        <v>6959782</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4503,7 +4512,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4513,12 +4522,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4549,10 +4558,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106643</v>
+        <v>131106646</v>
       </c>
       <c r="B38" t="n">
-        <v>78647</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4560,43 +4569,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601129</v>
+        <v>601173</v>
       </c>
       <c r="R38" t="n">
-        <v>6959679</v>
+        <v>6959739</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,7 +4643,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4663,7 +4668,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4674,32 +4679,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106649</v>
+        <v>131106643</v>
       </c>
       <c r="B39" t="n">
-        <v>91820</v>
+        <v>78647</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1205</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4709,7 +4714,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>cm²</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4718,10 +4723,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601221</v>
+        <v>601129</v>
       </c>
       <c r="R39" t="n">
-        <v>6959782</v>
+        <v>6959679</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4748,7 +4753,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4758,7 +4763,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4768,12 +4773,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:07</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>aspstubbe</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -3804,7 +3804,7 @@
         <v>131106660</v>
       </c>
       <c r="B32" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>131106663</v>
       </c>
       <c r="B33" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4056,10 +4056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131106659</v>
+        <v>131106648</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79864</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>601218</v>
+        <v>601198</v>
       </c>
       <c r="R34" t="n">
-        <v>6959810</v>
+        <v>6959731</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025_0517</t>
+          <t>2025_0528</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
+          <t>Brandpåverkad tallstubbe</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4177,10 +4177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131106648</v>
+        <v>131106659</v>
       </c>
       <c r="B35" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4188,21 +4188,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>601198</v>
+        <v>601218</v>
       </c>
       <c r="R35" t="n">
-        <v>6959731</v>
+        <v>6959810</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025_0528</t>
+          <t>2025_0517</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Brandpåverkad tallstubbe</t>
+          <t>På gran i barrblandskog. Ev. liten hackspett, men är med stor sannolikhet tretåig hackspett enligt diskussion med Anders Forsberg.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4301,7 +4301,7 @@
         <v>131106661</v>
       </c>
       <c r="B36" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4428,54 +4428,45 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106649</v>
+        <v>131106646</v>
       </c>
       <c r="B37" t="n">
-        <v>91820</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601221</v>
+        <v>601173</v>
       </c>
       <c r="R37" t="n">
-        <v>6959782</v>
+        <v>6959739</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4502,7 +4493,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0527</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4512,7 +4503,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4522,12 +4513,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>aspstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4558,10 +4549,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106646</v>
+        <v>131106643</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>78648</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4569,34 +4560,43 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601173</v>
+        <v>601129</v>
       </c>
       <c r="R38" t="n">
-        <v>6959739</v>
+        <v>6959679</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,12 +4643,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:36</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>tall</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4668,7 +4663,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4679,32 +4674,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131106643</v>
+        <v>131106649</v>
       </c>
       <c r="B39" t="n">
-        <v>78647</v>
+        <v>91821</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>1205</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4714,7 +4709,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>cm²</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4723,10 +4718,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>601129</v>
+        <v>601221</v>
       </c>
       <c r="R39" t="n">
-        <v>6959679</v>
+        <v>6959782</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4753,7 +4748,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0527</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4763,7 +4758,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4773,7 +4768,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>aspstubbe</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4807,7 +4807,7 @@
         <v>131106645</v>
       </c>
       <c r="B40" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/artfynd/A 46081-2025 artfynd.xlsx
+++ b/artfynd/A 46081-2025 artfynd.xlsx
@@ -4428,10 +4428,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131106646</v>
+        <v>131106643</v>
       </c>
       <c r="B37" t="n">
-        <v>79245</v>
+        <v>78648</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4439,34 +4439,43 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>601173</v>
+        <v>601129</v>
       </c>
       <c r="R37" t="n">
-        <v>6959739</v>
+        <v>6959679</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025_0530</t>
+          <t>2025_0533</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4503,7 +4512,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4513,12 +4522,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:36</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>tall</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4538,7 +4542,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Samuel Koont</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4549,10 +4553,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131106643</v>
+        <v>131106646</v>
       </c>
       <c r="B38" t="n">
-        <v>78648</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4560,43 +4564,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Lappberget, Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>601129</v>
+        <v>601173</v>
       </c>
       <c r="R38" t="n">
-        <v>6959679</v>
+        <v>6959739</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4623,7 +4618,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025_0533</t>
+          <t>2025_0530</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4633,7 +4628,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4643,7 +4638,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Samuel Koont</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4677,7 +4677,7 @@
         <v>131106649</v>
       </c>
       <c r="B39" t="n">
-        <v>91821</v>
+        <v>91824</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>131106645</v>
       </c>
       <c r="B40" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
